--- a/Club Standings data.xlsx
+++ b/Club Standings data.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6531e53307fd59aa/Desktop/BA 22-23/ARP/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CDA1BE8-8BAA-40D9-9596-9827C645B6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{0CDA1BE8-8BAA-40D9-9596-9827C645B6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77579031-ED45-42C6-AE76-4060FA190FFA}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{41818521-7761-4F76-BEAC-058567DF80F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$81</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,9 +48,6 @@
     <t>League</t>
   </si>
   <si>
-    <t>Team</t>
-  </si>
-  <si>
     <t>Played</t>
   </si>
   <si>
@@ -150,6 +148,9 @@
   </si>
   <si>
     <t>Napoli</t>
+  </si>
+  <si>
+    <t>Club</t>
   </si>
 </sst>
 </file>
@@ -185,7 +186,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -202,6 +204,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -501,15 +507,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD74BA0-60FC-4208-8081-89C479D155F0}">
-  <dimension ref="A1:K81"/>
+  <dimension ref="A1:O81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="8.7265625" customWidth="1"/>
+    <col min="14" max="14" width="16.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -517,42 +529,42 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
       </c>
       <c r="D2">
         <v>38</v>
@@ -579,15 +591,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>38</v>
@@ -614,15 +626,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4">
         <v>38</v>
@@ -648,16 +660,17 @@
       <c r="K4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <v>38</v>
@@ -683,16 +696,17 @@
       <c r="K5">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
         <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
       </c>
       <c r="D6">
         <v>38</v>
@@ -718,16 +732,17 @@
       <c r="K6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>38</v>
@@ -753,16 +768,17 @@
       <c r="K7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8">
         <v>38</v>
@@ -789,15 +805,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9">
         <v>38</v>
@@ -824,15 +840,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
         <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
       </c>
       <c r="D10">
         <v>38</v>
@@ -859,15 +875,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11">
         <v>38</v>
@@ -894,15 +910,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12">
         <v>38</v>
@@ -929,15 +945,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13">
         <v>38</v>
@@ -964,15 +980,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
         <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
       </c>
       <c r="D14">
         <v>38</v>
@@ -999,15 +1015,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15">
         <v>38</v>
@@ -1034,15 +1050,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16">
         <v>38</v>
@@ -1071,13 +1087,13 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17">
         <v>38</v>
@@ -1106,13 +1122,13 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
         <v>12</v>
-      </c>
-      <c r="C18" t="s">
-        <v>13</v>
       </c>
       <c r="D18">
         <v>38</v>
@@ -1141,13 +1157,13 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19">
         <v>38</v>
@@ -1176,13 +1192,13 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D20">
         <v>38</v>
@@ -1211,13 +1227,13 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21">
         <v>38</v>
@@ -1246,13 +1262,13 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
         <v>21</v>
-      </c>
-      <c r="C22" t="s">
-        <v>22</v>
       </c>
       <c r="D22">
         <v>38</v>
@@ -1281,13 +1297,13 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23">
         <v>38</v>
@@ -1316,13 +1332,13 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D24">
         <v>38</v>
@@ -1351,13 +1367,13 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
         <v>21</v>
-      </c>
-      <c r="C25" t="s">
-        <v>22</v>
       </c>
       <c r="D25">
         <v>38</v>
@@ -1386,13 +1402,13 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D26">
         <v>38</v>
@@ -1421,13 +1437,13 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D27">
         <v>38</v>
@@ -1456,13 +1472,13 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" t="s">
         <v>21</v>
-      </c>
-      <c r="C28" t="s">
-        <v>22</v>
       </c>
       <c r="D28">
         <v>38</v>
@@ -1491,13 +1507,13 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D29">
         <v>38</v>
@@ -1526,13 +1542,13 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D30">
         <v>38</v>
@@ -1561,13 +1577,13 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" t="s">
         <v>21</v>
-      </c>
-      <c r="C31" t="s">
-        <v>22</v>
       </c>
       <c r="D31">
         <v>38</v>
@@ -1596,13 +1612,13 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D32">
         <v>38</v>
@@ -1631,13 +1647,13 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D33">
         <v>38</v>
@@ -1666,13 +1682,13 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" t="s">
         <v>20</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>21</v>
-      </c>
-      <c r="C34" t="s">
-        <v>22</v>
       </c>
       <c r="D34">
         <v>38</v>
@@ -1701,13 +1717,13 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" t="s">
         <v>20</v>
       </c>
-      <c r="B35" t="s">
-        <v>21</v>
-      </c>
       <c r="C35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D35">
         <v>38</v>
@@ -1736,13 +1752,13 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" t="s">
         <v>20</v>
       </c>
-      <c r="B36" t="s">
-        <v>21</v>
-      </c>
       <c r="C36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D36">
         <v>38</v>
@@ -1771,13 +1787,13 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" t="s">
         <v>25</v>
-      </c>
-      <c r="C37" t="s">
-        <v>26</v>
       </c>
       <c r="D37">
         <v>34</v>
@@ -1806,13 +1822,13 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D38">
         <v>34</v>
@@ -1841,13 +1857,13 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D39">
         <v>34</v>
@@ -1876,13 +1892,13 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" t="s">
         <v>25</v>
-      </c>
-      <c r="C40" t="s">
-        <v>26</v>
       </c>
       <c r="D40">
         <v>34</v>
@@ -1911,13 +1927,13 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D41">
         <v>34</v>
@@ -1946,13 +1962,13 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D42">
         <v>34</v>
@@ -1981,13 +1997,13 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" t="s">
         <v>25</v>
-      </c>
-      <c r="C43" t="s">
-        <v>26</v>
       </c>
       <c r="D43">
         <v>34</v>
@@ -2016,13 +2032,13 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D44">
         <v>34</v>
@@ -2051,13 +2067,13 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D45">
         <v>34</v>
@@ -2086,13 +2102,13 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B46" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" t="s">
         <v>25</v>
-      </c>
-      <c r="C46" t="s">
-        <v>26</v>
       </c>
       <c r="D46">
         <v>34</v>
@@ -2121,13 +2137,13 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D47">
         <v>34</v>
@@ -2156,13 +2172,13 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B48" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D48">
         <v>34</v>
@@ -2191,13 +2207,13 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" t="s">
         <v>25</v>
-      </c>
-      <c r="C49" t="s">
-        <v>26</v>
       </c>
       <c r="D49">
         <v>34</v>
@@ -2226,13 +2242,13 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D50">
         <v>34</v>
@@ -2261,13 +2277,13 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D51">
         <v>34</v>
@@ -2296,13 +2312,13 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" t="s">
         <v>29</v>
-      </c>
-      <c r="C52" t="s">
-        <v>30</v>
       </c>
       <c r="D52">
         <v>38</v>
@@ -2331,13 +2347,13 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D53">
         <v>38</v>
@@ -2366,13 +2382,13 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D54">
         <v>38</v>
@@ -2401,13 +2417,13 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" t="s">
         <v>29</v>
-      </c>
-      <c r="C55" t="s">
-        <v>30</v>
       </c>
       <c r="D55">
         <v>38</v>
@@ -2436,13 +2452,13 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D56">
         <v>38</v>
@@ -2471,13 +2487,13 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B57" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D57">
         <v>38</v>
@@ -2506,13 +2522,13 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B58" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58" t="s">
         <v>29</v>
-      </c>
-      <c r="C58" t="s">
-        <v>30</v>
       </c>
       <c r="D58">
         <v>38</v>
@@ -2541,13 +2557,13 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B59" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D59">
         <v>38</v>
@@ -2576,13 +2592,13 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B60" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C60" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D60">
         <v>38</v>
@@ -2611,13 +2627,13 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" t="s">
         <v>29</v>
-      </c>
-      <c r="C61" t="s">
-        <v>30</v>
       </c>
       <c r="D61">
         <v>38</v>
@@ -2646,13 +2662,13 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B62" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D62">
         <v>38</v>
@@ -2681,13 +2697,13 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D63">
         <v>38</v>
@@ -2716,13 +2732,13 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B64" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" t="s">
         <v>29</v>
-      </c>
-      <c r="C64" t="s">
-        <v>30</v>
       </c>
       <c r="D64">
         <v>38</v>
@@ -2751,13 +2767,13 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D65">
         <v>38</v>
@@ -2786,13 +2802,13 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B66" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D66">
         <v>38</v>
@@ -2821,13 +2837,13 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B67" t="s">
+        <v>32</v>
+      </c>
+      <c r="C67" t="s">
         <v>33</v>
-      </c>
-      <c r="C67" t="s">
-        <v>34</v>
       </c>
       <c r="D67">
         <v>38</v>
@@ -2856,13 +2872,13 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B68" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D68">
         <v>38</v>
@@ -2891,13 +2907,13 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C69" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D69">
         <v>38</v>
@@ -2926,13 +2942,13 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B70" t="s">
+        <v>32</v>
+      </c>
+      <c r="C70" t="s">
         <v>33</v>
-      </c>
-      <c r="C70" t="s">
-        <v>34</v>
       </c>
       <c r="D70">
         <v>38</v>
@@ -2961,13 +2977,13 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B71" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C71" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D71">
         <v>38</v>
@@ -2996,13 +3012,13 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C72" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D72">
         <v>38</v>
@@ -3031,13 +3047,13 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B73" t="s">
+        <v>32</v>
+      </c>
+      <c r="C73" t="s">
         <v>33</v>
-      </c>
-      <c r="C73" t="s">
-        <v>34</v>
       </c>
       <c r="D73">
         <v>38</v>
@@ -3066,13 +3082,13 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B74" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C74" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D74">
         <v>38</v>
@@ -3101,13 +3117,13 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B75" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D75">
         <v>38</v>
@@ -3136,13 +3152,13 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B76" t="s">
+        <v>32</v>
+      </c>
+      <c r="C76" t="s">
         <v>33</v>
-      </c>
-      <c r="C76" t="s">
-        <v>34</v>
       </c>
       <c r="D76">
         <v>38</v>
@@ -3171,13 +3187,13 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B77" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C77" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D77">
         <v>38</v>
@@ -3206,13 +3222,13 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B78" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C78" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D78">
         <v>38</v>
@@ -3241,13 +3257,13 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B79" t="s">
+        <v>32</v>
+      </c>
+      <c r="C79" t="s">
         <v>33</v>
-      </c>
-      <c r="C79" t="s">
-        <v>34</v>
       </c>
       <c r="D79">
         <v>38</v>
@@ -3276,13 +3292,13 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D80">
         <v>38</v>
@@ -3311,13 +3327,13 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B81" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C81" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D81">
         <v>38</v>
@@ -3345,7 +3361,24 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K1" xr:uid="{1AD74BA0-60FC-4208-8081-89C479D155F0}"/>
+  <autoFilter ref="A1:K81" xr:uid="{1AD74BA0-60FC-4208-8081-89C479D155F0}"/>
+  <mergeCells count="1">
+    <mergeCell ref="O4:O7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88427BD2-90ED-4463-A2DB-7FABADC1DC0E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>